--- a/premise/data/additional_inventories/lci-methanol-heating.xlsx
+++ b/premise/data/additional_inventories/lci-methanol-heating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBF590-88FE-F54C-9177-89EEC0FC50AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E06BB-AD21-AD41-91B5-0A48E133A037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34920" windowHeight="22720" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="92">
   <si>
     <t>Activity</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>methanol production, coal gasification</t>
+  </si>
+  <si>
+    <t>methanol</t>
   </si>
 </sst>
 </file>
@@ -412,9 +418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -452,7 +458,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -558,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,7 +717,7 @@
   <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3364,7 +3370,7 @@
     </row>
     <row r="99" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B99" s="7">
         <v>5.5555555555555559E-2</v>
@@ -3373,13 +3379,13 @@
         <v>8</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>43</v>

--- a/premise/data/additional_inventories/lci-methanol-heating.xlsx
+++ b/premise/data/additional_inventories/lci-methanol-heating.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E06BB-AD21-AD41-91B5-0A48E133A037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861FF656-7DD0-5248-915C-D783DFA04374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34920" windowHeight="22720" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
+    <workbookView xWindow="2460" yWindow="2880" windowWidth="30240" windowHeight="18880" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="93">
   <si>
     <t>Activity</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>methanol</t>
+  </si>
+  <si>
+    <t>methanol production, biomass gasification</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B5158D-BF09-CE4B-9D78-BA0E638D2994}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="76" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B76" s="7">
         <v>5.5555555555555601E-2</v>
@@ -2573,13 +2576,13 @@
         <v>8</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>43</v>
@@ -4042,5 +4045,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-methanol-heating.xlsx
+++ b/premise/data/additional_inventories/lci-methanol-heating.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise-witch/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861FF656-7DD0-5248-915C-D783DFA04374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFB19E-18B4-F743-AEB0-0252B70A3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2880" windowWidth="30240" windowHeight="18880" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
+    <workbookView xWindow="680" yWindow="3120" windowWidth="30240" windowHeight="18880" xr2:uid="{56DD376B-3FB3-974E-BC88-AA42AC75F16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$112</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="92">
   <si>
     <t>Activity</t>
   </si>
@@ -279,9 +282,6 @@
   </si>
   <si>
     <t>market group for electricity, low voltage</t>
-  </si>
-  <si>
-    <t>methanol production, from synthetic gas</t>
   </si>
   <si>
     <t>methanol, from biomass</t>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B5158D-BF09-CE4B-9D78-BA0E638D2994}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -1177,13 +1177,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>27</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>26</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="76" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="7">
         <v>5.5555555555555601E-2</v>
@@ -2576,13 +2576,13 @@
         <v>8</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>43</v>
@@ -2888,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>26</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3353,7 +3353,7 @@
     </row>
     <row r="98" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="99" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B99" s="7">
         <v>5.5555555555555559E-2</v>
@@ -3388,7 +3388,7 @@
         <v>26</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>43</v>
@@ -3694,7 +3694,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>26</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="108" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" s="6">
         <v>7.6222222222222233E-2</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="109" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109" s="6">
         <v>9.0000000000000002E-6</v>
@@ -4044,6 +4044,7 @@
       <c r="B112" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T112" xr:uid="{28B5158D-BF09-CE4B-9D78-BA0E638D2994}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
